--- a/EXCEL_TASKS_24.01.26.xlsx
+++ b/EXCEL_TASKS_24.01.26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC1\Desktop\JIYA GITHUB\DATA-ANALYTICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{694354B3-CA27-4400-8FA2-DAD66916C3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDF97C14-320A-4C98-ACF7-3F4B986C8B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{1D78211D-CBF0-46B4-A806-0E5A1AD6D8F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{1D78211D-CBF0-46B4-A806-0E5A1AD6D8F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,13 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="174">
   <si>
     <t>Employee ID</t>
   </si>
@@ -547,17 +552,229 @@
   <si>
     <t>COUNT</t>
   </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Task 6:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Count Present days
+Count Absent days
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Present Days:</t>
+  </si>
+  <si>
+    <t>Absent Days:</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>O101</t>
+  </si>
+  <si>
+    <t>O102</t>
+  </si>
+  <si>
+    <t>O103</t>
+  </si>
+  <si>
+    <t>O104</t>
+  </si>
+  <si>
+    <t>O105</t>
+  </si>
+  <si>
+    <t>O106</t>
+  </si>
+  <si>
+    <t>Task 7:
+Count sales above 10000
+Count sales below 5000</t>
+  </si>
+  <si>
+    <t>O107</t>
+  </si>
+  <si>
+    <t>O108</t>
+  </si>
+  <si>
+    <t>O109</t>
+  </si>
+  <si>
+    <t>O110</t>
+  </si>
+  <si>
+    <t>O111</t>
+  </si>
+  <si>
+    <t>O112</t>
+  </si>
+  <si>
+    <t>O113</t>
+  </si>
+  <si>
+    <t>O114</t>
+  </si>
+  <si>
+    <t>O115</t>
+  </si>
+  <si>
+    <t>O116</t>
+  </si>
+  <si>
+    <t>O117</t>
+  </si>
+  <si>
+    <t>O118</t>
+  </si>
+  <si>
+    <t>O119</t>
+  </si>
+  <si>
+    <t>Sales Above 10000:</t>
+  </si>
+  <si>
+    <t>Sales below 5000:</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Headphones</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Task 8:
+Highlight sales &gt; 20000 (Green)
+Highlight sales &lt; 5000 (Red)</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Bharti</t>
+  </si>
+  <si>
+    <t>Chetan</t>
+  </si>
+  <si>
+    <t>Deepa</t>
+  </si>
+  <si>
+    <t>Farhan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Task 9:
+Marks ≥ 75 → Green
+Marks &lt; 40 → Red</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Simran</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>Nisha</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Task 10:
+≥ 50000 → Dark Green
+30000–49999 → Yellow
+&lt; 30000 → Light Red</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="169" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="173" formatCode="&quot;₹&quot;\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,6 +904,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -793,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -801,25 +1024,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -830,29 +1044,23 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -893,7 +1101,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -938,16 +1146,188 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1276,371 +1656,371 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <v>32000</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>44573</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="14">
         <v>45000</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="15">
         <v>44260</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
     </row>
     <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>38000</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>44030</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="14">
         <v>52000</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="15">
         <v>43779</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
     </row>
     <row r="8" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="11">
         <v>30000</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>45102</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="16">
         <v>42683</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="15">
         <v>43853</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="16">
         <v>26323</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>44573</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="16">
         <v>31100</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="15">
         <v>44222</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="16">
         <v>43121</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <v>44223</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="16">
         <v>28361</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="15">
         <v>43831</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="16">
         <v>51772</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="15">
         <v>43789</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="16">
         <v>43971</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="15">
         <v>44280</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="16">
         <v>54169</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="12">
         <v>44362</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="16">
         <v>35185</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="12">
         <v>43908</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="16">
         <v>35763</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="12">
         <v>44103</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="16">
         <v>29295</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="12">
         <v>44114</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="16">
         <v>27794</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="12">
         <v>43993</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="16">
         <v>40955</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="12">
         <v>44167</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="16">
         <v>37956</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="12">
         <v>44097</v>
       </c>
     </row>
@@ -1651,6 +2031,238 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA6A905-5878-4175-AE3A-00108D7BADA0}">
+  <dimension ref="A1:Q21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="36">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="39">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="36">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="39">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="36">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="41">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="41">
+        <v>36604</v>
+      </c>
+      <c r="N8" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="41">
+        <v>56107</v>
+      </c>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="41">
+        <v>57541</v>
+      </c>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="41">
+        <v>45225</v>
+      </c>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="41">
+        <v>35505</v>
+      </c>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="41">
+        <v>28886</v>
+      </c>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="41">
+        <v>35147</v>
+      </c>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="41">
+        <v>44268</v>
+      </c>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="41">
+        <v>53220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="41">
+        <v>37180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="41">
+        <v>22599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="41">
+        <v>36648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="41">
+        <v>51541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="41">
+        <v>25846</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N8:Q15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2:B21">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
+      <formula>50000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+      <formula>30000</formula>
+      <formula>49999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>30000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1669,29 +2281,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1705,7 +2317,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1719,7 +2331,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1731,16 +2343,16 @@
       <c r="D6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1752,14 +2364,14 @@
       <c r="D7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
     </row>
     <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1767,19 +2379,19 @@
       </c>
       <c r="C8" s="6">
         <f ca="1">RANDBETWEEN(20000,65000)</f>
-        <v>62726</v>
+        <v>55846</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1787,19 +2399,19 @@
       </c>
       <c r="C9" s="6">
         <f t="shared" ref="C9:C23" ca="1" si="0">RANDBETWEEN(20000,65000)</f>
-        <v>48917</v>
+        <v>22831</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1807,19 +2419,19 @@
       </c>
       <c r="C10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>39691</v>
+        <v>20037</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
     </row>
     <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1827,19 +2439,19 @@
       </c>
       <c r="C11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>32718</v>
+        <v>39697</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1847,19 +2459,19 @@
       </c>
       <c r="C12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>35510</v>
+        <v>54978</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1867,19 +2479,19 @@
       </c>
       <c r="C13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>37093</v>
+        <v>48126</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1887,14 +2499,14 @@
       </c>
       <c r="C14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>24413</v>
+        <v>56518</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1902,14 +2514,14 @@
       </c>
       <c r="C15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>56209</v>
+        <v>63937</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1917,14 +2529,14 @@
       </c>
       <c r="C16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>32530</v>
+        <v>35009</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1932,14 +2544,14 @@
       </c>
       <c r="C17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>27278</v>
+        <v>30754</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1947,14 +2559,14 @@
       </c>
       <c r="C18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>55282</v>
+        <v>35251</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1962,14 +2574,14 @@
       </c>
       <c r="C19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>53404</v>
+        <v>39987</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1977,14 +2589,14 @@
       </c>
       <c r="C20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>25383</v>
+        <v>48219</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1992,14 +2604,14 @@
       </c>
       <c r="C21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>39508</v>
+        <v>45560</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2007,14 +2619,14 @@
       </c>
       <c r="C22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>60749</v>
+        <v>35292</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2022,7 +2634,7 @@
       </c>
       <c r="C23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>39419</v>
+        <v>23085</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>57</v>
@@ -2053,606 +2665,606 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="27">
         <v>78</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="27">
         <v>82</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="27">
         <v>74</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="27">
         <f>SUM(C2:E2)</f>
         <v>234</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="26">
         <f>F2/300</f>
         <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="28">
         <v>65</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="28">
         <v>70</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="28">
         <v>68</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="27">
         <f t="shared" ref="F3:F21" si="0">SUM(C3:E3)</f>
         <v>203</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="26">
         <f t="shared" ref="G3:G21" si="1">F3/300</f>
         <v>0.67666666666666664</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
     </row>
     <row r="4" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="27">
         <v>90</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="27">
         <v>88</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="27">
         <v>92</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="27">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="26">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="28">
         <v>35</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="28">
         <v>40</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="28">
         <v>38</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="27">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="26">
         <f t="shared" si="1"/>
         <v>0.37666666666666665</v>
       </c>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="27">
         <v>55</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="27">
         <v>60</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="27">
         <v>58</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="27">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="26">
         <f t="shared" si="1"/>
         <v>0.57666666666666666</v>
       </c>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
     </row>
     <row r="7" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="29">
         <f ca="1">RANDBETWEEN(10,90)</f>
-        <v>23</v>
-      </c>
-      <c r="D7" s="35">
+        <v>88</v>
+      </c>
+      <c r="D7" s="30">
         <v>67</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="29">
         <f ca="1">RANDBETWEEN(20,95)</f>
-        <v>24</v>
-      </c>
-      <c r="F7" s="32">
+        <v>51</v>
+      </c>
+      <c r="F7" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="G7" s="31">
+        <v>206</v>
+      </c>
+      <c r="G7" s="26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38</v>
-      </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+        <v>0.68666666666666665</v>
+      </c>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
     </row>
     <row r="8" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="29">
         <f t="shared" ref="C8:C20" ca="1" si="2">RANDBETWEEN(10,90)</f>
+        <v>41</v>
+      </c>
+      <c r="D8" s="29">
+        <f t="shared" ref="D8:E21" ca="1" si="3">RANDBETWEEN(20,95)</f>
+        <v>59</v>
+      </c>
+      <c r="E8" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F8" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="G8" s="26">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+    </row>
+    <row r="9" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D9" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="F9" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="G9" s="26">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+    </row>
+    <row r="10" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="D10" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="E10" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="F10" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="G10" s="26">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="D11" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="E11" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="F11" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="G11" s="26">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.54333333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="D12" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="E12" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="F12" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="G12" s="26">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50666666666666671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="D13" s="29">
+        <f t="shared" ca="1" si="3"/>
         <v>29</v>
       </c>
-      <c r="D8" s="34">
-        <f t="shared" ref="D8:E21" ca="1" si="3">RANDBETWEEN(20,95)</f>
+      <c r="E13" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="F13" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="G13" s="26">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33666666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="D14" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="E14" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="F14" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="G14" s="26">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D15" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="E15" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="F15" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="G15" s="26">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.58666666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="D16" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="E16" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="F16" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="G16" s="26">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="D17" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="E17" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="F17" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="G17" s="26">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.42333333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <v>17</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="D18" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="E18" s="29">
+        <f t="shared" ca="1" si="3"/>
         <v>21</v>
       </c>
-      <c r="E8" s="34">
+      <c r="F18" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="G18" s="26">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="D19" s="29">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="F8" s="32">
+        <v>79</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="F19" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="G8" s="31">
+        <v>161</v>
+      </c>
+      <c r="G19" s="26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43666666666666665</v>
-      </c>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-    </row>
-    <row r="9" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="34">
+        <v>0.53666666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <v>19</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="29">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="D9" s="34">
+        <v>68</v>
+      </c>
+      <c r="D20" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>58</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E20" s="29">
         <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="F20" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="G20" s="26">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.59333333333333338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
+        <v>20</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="27">
         <v>41</v>
       </c>
-      <c r="F9" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>172</v>
-      </c>
-      <c r="G9" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.57333333333333336</v>
-      </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-    </row>
-    <row r="10" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
-        <v>9</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="D10" s="34">
+      <c r="D21" s="29">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
-      </c>
-      <c r="E10" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>82</v>
-      </c>
-      <c r="F10" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>192</v>
-      </c>
-      <c r="G10" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="D11" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="E11" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="F11" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>258</v>
-      </c>
-      <c r="G11" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
-        <v>11</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="D12" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="E12" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="F12" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>204</v>
-      </c>
-      <c r="G12" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28">
-        <v>12</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="D13" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="E13" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="F13" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>154</v>
-      </c>
-      <c r="G13" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.51333333333333331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
-        <v>13</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="D14" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="E14" s="34">
+        <v>91</v>
+      </c>
+      <c r="E21" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>54</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F21" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="G14" s="31">
+        <v>186</v>
+      </c>
+      <c r="G21" s="26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28">
-        <v>14</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="D15" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>79</v>
-      </c>
-      <c r="E15" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="F15" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="G15" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
-        <v>15</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="D16" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="E16" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="F16" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>176</v>
-      </c>
-      <c r="G16" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.58666666666666667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
-        <v>16</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="D17" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="E17" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>57</v>
-      </c>
-      <c r="F17" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="G17" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="D18" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="E18" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>67</v>
-      </c>
-      <c r="F18" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>192</v>
-      </c>
-      <c r="G18" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
-        <v>18</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="D19" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="E19" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>73</v>
-      </c>
-      <c r="F19" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>164</v>
-      </c>
-      <c r="G19" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.54666666666666663</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28">
-        <v>19</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="D20" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>77</v>
-      </c>
-      <c r="E20" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="F20" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>158</v>
-      </c>
-      <c r="G20" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.52666666666666662</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27">
-        <v>20</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="32">
-        <v>41</v>
-      </c>
-      <c r="D21" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="E21" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="F21" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="G21" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.56666666666666665</v>
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -2679,310 +3291,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="35">
         <v>45292</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="36">
         <v>12000</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="38">
         <v>45294</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="39">
         <v>25000</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="35">
         <v>45296</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="36">
         <v>8000</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
     </row>
     <row r="5" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="38">
         <v>45299</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="39">
         <v>32000</v>
       </c>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
     </row>
     <row r="6" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="35">
         <v>45301</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="36">
         <v>15000</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
     </row>
     <row r="7" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="35">
         <v>45292</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="40">
         <v>22148</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
     </row>
     <row r="8" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="38">
         <v>45294</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="40">
         <v>29939</v>
       </c>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
     </row>
     <row r="9" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="35">
         <v>45296</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="40">
         <v>23637</v>
       </c>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
     </row>
     <row r="10" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="38">
         <v>45299</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="40">
         <v>22552</v>
       </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
     </row>
     <row r="11" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="35">
         <v>45301</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="40">
         <v>27563</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="35">
         <v>45292</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="40">
         <v>24630</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="38">
         <v>45294</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="40">
         <v>19007</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="35">
         <v>45296</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="40">
         <v>26961</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="38">
         <v>45299</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="40">
         <v>28175</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="35">
         <v>45301</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="40">
         <v>19794</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="35">
         <v>45292</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="40">
         <v>14097</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="38">
         <v>45294</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="40">
         <v>25560</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="35">
         <v>45296</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="40">
         <v>22854</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="38">
         <v>45299</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="40">
         <v>23738</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="48">
+      <c r="B21" s="43">
         <v>45301</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="44">
         <v>15888</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="32">
         <f>SUM(C2:C21)</f>
         <v>438543</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="32">
         <f>AVERAGE(C2:C21)</f>
         <v>21927.15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="32">
         <f>MAX(C2:C21)</f>
         <v>32000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="32">
         <f>MIN(C2:C21)</f>
         <v>8000</v>
       </c>
@@ -3000,46 +3612,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA87010-1541-4A3C-8F27-473CE52DE7B8}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="39">
         <v>42000</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="39">
         <v>38000</v>
       </c>
       <c r="E3" s="53" t="s">
@@ -3047,25 +3660,24 @@
       </c>
       <c r="F3" s="53"/>
       <c r="G3" s="53"/>
-      <c r="H3">
-        <f>SUM(C2:C7)</f>
+      <c r="H3" s="32">
         <v>221657</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
     </row>
     <row r="4" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="41">
         <v>28454</v>
       </c>
       <c r="E4" s="53" t="s">
@@ -3073,23 +3685,22 @@
       </c>
       <c r="F4" s="53"/>
       <c r="G4" s="53"/>
-      <c r="H4">
-        <f>SUM(C8:C14)</f>
+      <c r="H4" s="32">
         <v>243097</v>
       </c>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
     </row>
     <row r="5" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="41">
         <v>33205</v>
       </c>
       <c r="E5" s="54" t="s">
@@ -3097,208 +3708,205 @@
       </c>
       <c r="F5" s="54"/>
       <c r="G5" s="54"/>
-      <c r="H5">
-        <f>SUM(C15:C20)</f>
+      <c r="H5" s="32">
         <v>260757</v>
       </c>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
     </row>
     <row r="6" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="41">
         <v>48337</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
     </row>
     <row r="7" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="41">
         <v>31661</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
     </row>
     <row r="8" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="36">
         <v>28000</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="36">
         <v>30000</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="41">
         <v>46333</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="41">
         <v>21920</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="41">
         <v>23157</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="41">
         <v>47580</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="41">
         <v>46107</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="39">
         <v>45000</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="36">
         <v>50000</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="41">
         <v>48883</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="41">
         <v>38008</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="41">
         <v>53715</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="41">
         <v>25151</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
+      <c r="A21" s="47"/>
     </row>
     <row r="22" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C22">
-        <f>AVERAGE(C2:C20)</f>
+      <c r="C22" s="32">
         <v>38184.789473684214</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C23">
-        <f>COUNT(C2:C20)</f>
+      <c r="C23" s="55">
         <v>19</v>
       </c>
     </row>
@@ -3312,5 +3920,1254 @@
     <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EF80D3-664F-4313-A87B-95FF7642C04F}">
+  <dimension ref="A1:R24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="O5" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+    </row>
+    <row r="6" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+    </row>
+    <row r="7" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+    </row>
+    <row r="8" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+    </row>
+    <row r="9" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+    </row>
+    <row r="10" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+    </row>
+    <row r="11" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+    </row>
+    <row r="12" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+    </row>
+    <row r="13" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="31">
+        <f>COUNTIF(B2:F21,"P")</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="31">
+        <f>COUNTIF(B2:F21,"A")</f>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O5:R12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8DDF63-81EE-4127-864A-06B1C92177E1}">
+  <dimension ref="A1:S23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="36">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="39">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="36">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="39">
+        <v>25000</v>
+      </c>
+      <c r="P5" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+    </row>
+    <row r="6" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="36">
+        <v>3000</v>
+      </c>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+    </row>
+    <row r="7" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="39">
+        <v>15000</v>
+      </c>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+    </row>
+    <row r="8" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="41">
+        <v>5706</v>
+      </c>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+    </row>
+    <row r="9" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="41">
+        <v>16069</v>
+      </c>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+    </row>
+    <row r="10" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="41">
+        <v>12374</v>
+      </c>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+    </row>
+    <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="41">
+        <v>3461</v>
+      </c>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+    </row>
+    <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="41">
+        <v>9723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="41">
+        <v>5595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="41">
+        <v>13258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="41">
+        <v>7891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="41">
+        <v>17193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="41">
+        <v>13453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="41">
+        <v>17171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="41">
+        <v>15452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="41">
+        <v>7138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P5:S11"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B20">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>10000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>5000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BF12DE-CC25-4751-9BEC-258EFFC5B5FB}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="36">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="39">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="36">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="39">
+        <v>1800</v>
+      </c>
+      <c r="M5" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+    </row>
+    <row r="6" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="36">
+        <v>12000</v>
+      </c>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="41">
+        <v>29748</v>
+      </c>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="41">
+        <v>22896</v>
+      </c>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="41">
+        <v>39338</v>
+      </c>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="41">
+        <v>40843</v>
+      </c>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="41">
+        <v>13557</v>
+      </c>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="41">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="41">
+        <v>41839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="41">
+        <v>51420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="41">
+        <v>46960</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="41">
+        <v>16158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="41">
+        <v>53849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="41">
+        <v>66572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="41">
+        <v>50115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="41">
+        <v>19090</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="41">
+        <v>42147</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M5:P11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2:B21">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+      <formula>20000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+      <formula>5000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6B433F-9776-43E4-AED8-668AE26B0FC3}">
+  <dimension ref="A1:R21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="61">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="36">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="61">
+        <v>2</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="39">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="61">
+        <v>3</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="61">
+        <v>4</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="39">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="61">
+        <v>5</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="36">
+        <v>28</v>
+      </c>
+      <c r="O6" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="61">
+        <v>6</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="41">
+        <v>62</v>
+      </c>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="61">
+        <v>7</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="41">
+        <v>12</v>
+      </c>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="61">
+        <v>8</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="41">
+        <v>71</v>
+      </c>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="61">
+        <v>9</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="41">
+        <v>27</v>
+      </c>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="61">
+        <v>10</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="41">
+        <v>26</v>
+      </c>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="61">
+        <v>11</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="41">
+        <v>8</v>
+      </c>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="61">
+        <v>12</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="41">
+        <v>12</v>
+      </c>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="61">
+        <v>13</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="41">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="61">
+        <v>14</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="61">
+        <v>15</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="41">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="61">
+        <v>16</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="41">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="61">
+        <v>17</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="41">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="61">
+        <v>18</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="41">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="61">
+        <v>19</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="41">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="61">
+        <v>20</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="41">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O6:R13"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C2:C21">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThanOrEqual">
+      <formula>75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+      <formula>40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>